--- a/excel/contrcat_10200.xlsx
+++ b/excel/contrcat_10200.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="給与管理台帳" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>坂口美波</author>
-    <author>大窪久美</author>
   </authors>
   <commentList>
     <comment ref="AL3" authorId="0" shapeId="0">
@@ -109,38 +108,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>大窪久美:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-4/1-2は土日のため待機なし</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>現従業員</t>
     <rPh sb="0" eb="1">
@@ -679,85 +652,20 @@
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
-  <si>
-    <t>正</t>
-    <rPh sb="0" eb="1">
-      <t>セイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>小林　正明</t>
-  </si>
-  <si>
-    <t>0000626</t>
-  </si>
-  <si>
-    <t>特例１</t>
-    <rPh sb="0" eb="2">
-      <t>トクレイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>月末</t>
-  </si>
-  <si>
-    <t>翌々月11日</t>
-  </si>
-  <si>
-    <t>稼働率</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ＳＥ</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>契</t>
-    <rPh sb="0" eb="1">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>村松　信明</t>
-  </si>
-  <si>
-    <t>0000613</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ＳＥ</t>
-    <phoneticPr fontId="6"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="8">
+  <numFmts count="6">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="178" formatCode="0000"/>
     <numFmt numFmtId="179" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
-    <numFmt numFmtId="180" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
-    <numFmt numFmtId="181" formatCode="&quot;¥&quot;#,##0_);\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,28 +715,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
@@ -844,7 +730,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -869,18 +755,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -987,7 +861,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1042,45 +916,6 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1129,44 +964,45 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="通貨 2" xfId="2"/>
@@ -1483,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA5"/>
+  <dimension ref="A1:BA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1559,73 +1395,73 @@
       <c r="D2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="18" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="21" t="s">
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="21" t="s">
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="24" t="s">
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="24" t="s">
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="26"/>
-      <c r="AR2" s="27" t="s">
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="29" t="s">
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="31"/>
+      <c r="AZ2" s="40"/>
+      <c r="BA2" s="18"/>
     </row>
     <row r="3" spans="1:53" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15"/>
@@ -1633,418 +1469,156 @@
       <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="N3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="39" t="s">
+      <c r="O3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="P3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="39" t="s">
+      <c r="Q3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="39" t="s">
+      <c r="R3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="39" t="s">
+      <c r="S3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="39" t="s">
+      <c r="T3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="39" t="s">
+      <c r="U3" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="39" t="s">
+      <c r="V3" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="40" t="s">
+      <c r="W3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="X3" s="39" t="s">
+      <c r="X3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="Y3" s="39" t="s">
+      <c r="Y3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="41" t="s">
+      <c r="Z3" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="41" t="s">
+      <c r="AA3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="39" t="s">
+      <c r="AB3" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" s="39" t="s">
+      <c r="AC3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="AD3" s="39" t="s">
+      <c r="AD3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AE3" s="41" t="s">
+      <c r="AE3" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="AF3" s="41" t="s">
+      <c r="AF3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="AG3" s="39" t="s">
+      <c r="AG3" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="AH3" s="39" t="s">
+      <c r="AH3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="AI3" s="39" t="s">
+      <c r="AI3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AJ3" s="41" t="s">
+      <c r="AJ3" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="AK3" s="41" t="s">
+      <c r="AK3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="AL3" s="42" t="s">
+      <c r="AL3" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AM3" s="42" t="s">
+      <c r="AM3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AN3" s="42" t="s">
+      <c r="AN3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AO3" s="42" t="s">
+      <c r="AO3" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AP3" s="41" t="s">
+      <c r="AP3" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="AQ3" s="42" t="s">
+      <c r="AQ3" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AR3" s="43" t="s">
+      <c r="AR3" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AS3" s="44" t="s">
+      <c r="AS3" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="AT3" s="43" t="s">
+      <c r="AT3" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="AU3" s="43" t="s">
+      <c r="AU3" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="AV3" s="43" t="s">
+      <c r="AV3" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="AW3" s="43" t="s">
+      <c r="AW3" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="AX3" s="45" t="s">
+      <c r="AX3" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="AY3" s="46" t="s">
+      <c r="AY3" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="AZ3" s="46" t="s">
+      <c r="AZ3" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="BA3" s="31" t="s">
+      <c r="BA3" s="18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48">
-        <v>1</v>
-      </c>
-      <c r="C4" s="49">
-        <v>116</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="53">
-        <v>42705</v>
-      </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" s="54">
-        <v>42828</v>
-      </c>
-      <c r="M4" s="54">
-        <v>42897</v>
-      </c>
-      <c r="N4" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" s="55">
-        <v>330000</v>
-      </c>
-      <c r="Q4" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="R4" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="S4" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="T4" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="U4" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="V4" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="W4" s="57"/>
-      <c r="X4" s="55">
-        <v>1730</v>
-      </c>
-      <c r="Y4" s="55">
-        <v>2350</v>
-      </c>
-      <c r="Z4" s="52">
-        <v>190</v>
-      </c>
-      <c r="AA4" s="52">
-        <v>140</v>
-      </c>
-      <c r="AB4" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC4" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD4" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE4" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF4" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG4" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH4" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI4" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ4" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK4" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL4" s="54">
-        <v>42705</v>
-      </c>
-      <c r="AM4" s="54">
-        <v>42705</v>
-      </c>
-      <c r="AN4" s="54">
-        <v>42705</v>
-      </c>
-      <c r="AO4" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP4" s="51">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR4" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="59"/>
-    </row>
-    <row r="5" spans="1:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48">
-        <v>1</v>
-      </c>
-      <c r="C5" s="49">
-        <v>116</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="53">
-        <v>42650</v>
-      </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" s="54">
-        <v>42826</v>
-      </c>
-      <c r="M5" s="54">
-        <v>42897</v>
-      </c>
-      <c r="N5" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="P5" s="55">
-        <v>272600</v>
-      </c>
-      <c r="Q5" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="R5" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="S5" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="T5" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="U5" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="V5" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="W5" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="X5" s="55">
-        <v>1430</v>
-      </c>
-      <c r="Y5" s="55">
-        <v>1940</v>
-      </c>
-      <c r="Z5" s="52">
-        <v>190</v>
-      </c>
-      <c r="AA5" s="52">
-        <v>140</v>
-      </c>
-      <c r="AB5" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC5" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD5" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE5" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF5" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG5" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH5" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI5" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ5" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK5" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL5" s="54">
-        <v>42650</v>
-      </c>
-      <c r="AM5" s="54">
-        <v>42650</v>
-      </c>
-      <c r="AN5" s="54">
-        <v>42650</v>
-      </c>
-      <c r="AO5" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP5" s="51">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR5" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS5" s="61"/>
-      <c r="AT5" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/excel/contrcat_10200.xlsx
+++ b/excel/contrcat_10200.xlsx
@@ -665,7 +665,7 @@
     <numFmt numFmtId="178" formatCode="0000"/>
     <numFmt numFmtId="179" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,6 +729,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -861,7 +868,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1002,6 +1009,9 @@
     </xf>
     <xf numFmtId="6" fontId="4" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1322,13 +1332,15 @@
   <dimension ref="A1:BA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="47" customWidth="1"/>
+    <col min="2" max="12" width="9" style="47"/>
+    <col min="13" max="13" width="10" style="47" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.15">
@@ -1634,6 +1646,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>